--- a/xlsx/BMW X6_intext.xlsx
+++ b/xlsx/BMW X6_intext.xlsx
@@ -29,13 +29,13 @@
     <t>BMW</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_BMW X6</t>
+    <t>政策_政策_混合动力车辆_BMW X6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E5%B0%94_(%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BC%95%E6%93%8E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_X5</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/V8%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>V8發動機</t>
+    <t>V8发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/I6</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC</t>
   </si>
   <si>
-    <t>寶馬</t>
+    <t>宝马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E5%8E%9F%E8%B7%AF%E8%8F%AF</t>
   </si>
   <si>
-    <t>荒原路華</t>
+    <t>荒原路华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7%E5%8D%A1%E5%AE%B4</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>法蘭克福車展</t>
+    <t>法兰克福车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>馬達</t>
+    <t>马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E8%BB%8A</t>
   </si>
   <si>
-    <t>安全車</t>
+    <t>安全车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%BF%E8%BD%A6</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_Z</t>
